--- a/data/trans_dic/P55_9-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P55_9-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +64,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,12 +524,18 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que no puede permitirse disponer de una lavadora</t>
+          <t>Población que no puede permitirse disponer de una lavadora (tasa de respuesta: 99,44%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -531,18 +545,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -554,27 +574,57 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -587,6 +637,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>99,12%</t>
+          <t>99,06%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>96,83%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>97,83%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>98,5%</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>96,69%</t>
+          <t>94,44%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>98,82%</t>
+          <t>98,48%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>97,74%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>96,7%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>95,25%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>98,77%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
           <t>97,29%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>97,29%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>94,82%</t>
         </is>
       </c>
     </row>
@@ -639,32 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>95,48; 100,0</t>
+          <t>95,18; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>92,85; 100,0</t>
+          <t>91,4; 99,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>95,86; 99,84</t>
+          <t>92,55; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>92,03; 99,22</t>
+          <t>87,82; 98,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>96,7; 99,72</t>
+          <t>96,02; 99,57</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>93,84; 98,87</t>
+          <t>93,27; 99,51</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>92,33; 99,14</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>90,52; 97,83</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>96,73; 99,56</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>94,34; 99,05</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>94,05; 98,89</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>91,15; 97,33</t>
         </is>
       </c>
     </row>
@@ -681,32 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>97,48%</t>
+          <t>97,7%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>98,85%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>96,6%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>97,4%</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>96,21%</t>
+          <t>96,08%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>97,14%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>97,46%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>96,2%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>96,9%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>97,44%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>98,2%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
         <is>
           <t>96,41%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>96,48%</t>
         </is>
       </c>
     </row>
@@ -719,32 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>93,69; 99,11</t>
+          <t>93,86; 99,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>89,85; 99,13</t>
+          <t>94,94; 100,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>94,15; 99,13</t>
+          <t>90,14; 99,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>92,22; 98,37</t>
+          <t>90,37; 99,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>95,33; 98,89</t>
+          <t>93,2; 99,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>92,89; 98,13</t>
+          <t>93,2; 99,4</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>92,62; 98,4</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>92,97; 98,86</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>95,13; 98,8</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>95,87; 99,36</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>93,07; 98,22</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>93,63; 98,38</t>
         </is>
       </c>
     </row>
@@ -761,32 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>98,65%</t>
+          <t>98,47%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>99,44%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>99,03%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>98,9%</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>93,78%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>98,92%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>99,19%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
           <t>94,29%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>98,78%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>96,65%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>98,7%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>99,31%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
         <is>
           <t>96,79%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>95,15%</t>
         </is>
       </c>
     </row>
@@ -799,32 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>94,15; 100,0</t>
+          <t>93,4; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>96,85; 100,0</t>
+          <t>97,25; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>97,24; 99,65</t>
+          <t>96,57; 100,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>90,39; 96,83</t>
+          <t>89,23; 96,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>97,12; 99,57</t>
+          <t>97,31; 99,72</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>94,7; 98,11</t>
+          <t>97,38; 100,0</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>90,22; 96,82</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>93,62; 98,59</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>96,65; 99,51</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>97,84; 99,83</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>94,75; 98,07</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>92,58; 97,01</t>
         </is>
       </c>
     </row>
@@ -846,27 +1082,57 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>97,01%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>98,56%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>97,73%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>95,64%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>97,76%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>98,81%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
           <t>99,12%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>98,85%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>96,68%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>98,86%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>97,91%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
         <is>
           <t>98,82%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>96,15%</t>
         </is>
       </c>
     </row>
@@ -879,32 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>99,38; 100</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>96,11; 99,58</t>
+          <t>86,3; 100,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>95,31; 99,05</t>
+          <t>95,76; 99,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>96,88; 100,0</t>
+          <t>92,08; 97,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>97,6; 99,6</t>
+          <t>95,49; 99,14</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>97,27; 99,57</t>
+          <t>96,53; 99,69</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>96,46; 100,0</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>94,17; 98,4</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>97,48; 99,54</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>92,34; 99,56</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>97,45; 99,55</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>93,94; 97,75</t>
         </is>
       </c>
     </row>
@@ -921,32 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>98,29%</t>
+          <t>98,39%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>98,45%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>92,15%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>98,9%</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>98,34%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>98,94%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>98,96%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
           <t>97,63%</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>98,6%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>96,27%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>98,67%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>98,71%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
         <is>
           <t>95,02%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>97,28%</t>
         </is>
       </c>
     </row>
@@ -959,32 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>96,17; 99,42</t>
+          <t>96,33; 99,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>87,12; 95,67</t>
+          <t>95,45; 99,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>97,04; 99,66</t>
+          <t>86,76; 95,56</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>94,68; 99,16</t>
+          <t>95,5; 99,48</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>97,42; 99,41</t>
+          <t>96,91; 99,67</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>92,6; 97,13</t>
+          <t>95,98; 100,0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>95,22; 99,13</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>92,99; 98,54</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>97,44; 99,37</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>96,95; 99,59</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>92,13; 97,03</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>95,42; 98,56</t>
         </is>
       </c>
     </row>
@@ -1001,32 +1357,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>99,31%</t>
+          <t>99,37%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>95,92%</t>
+          <t>97,17%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>98,12%</t>
+          <t>95,93%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>98,71%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>98,02%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>95,3%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
           <t>99,09%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>98,64%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>98,54%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>98,61%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>96,13%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
         <is>
           <t>97,76%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>98,61%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>96,23; 100,0</t>
+          <t>96,81; 100,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>91,41; 98,3</t>
+          <t>92,42; 99,28</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>95,49; 99,61</t>
+          <t>91,26; 98,42</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>95,46; 100,0</t>
+          <t>95,88; 100,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>96,89; 99,53</t>
+          <t>94,95; 99,28</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>94,88; 98,93</t>
+          <t>82,95; 99,37</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>95,49; 100,0</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>95,66; 99,58</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>96,89; 99,55</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>89,39; 98,7</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>95,36; 99,05</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>96,9; 99,5</t>
         </is>
       </c>
     </row>
@@ -1081,32 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>98,82%</t>
+          <t>98,84%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
+          <t>98,0%</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>96,88%</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>98,26%</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>96,03%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>98,22%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>97,87%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
           <t>97,26%</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>98,53%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>96,86%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>98,52%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>97,93%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
         <is>
           <t>97,07%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>96,45%</t>
         </is>
       </c>
     </row>
@@ -1119,49 +1565,1712 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>97,78; 99,34</t>
+          <t>97,84; 99,4</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>95,4; 97,91</t>
+          <t>95,98; 98,94</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>97,45; 98,83</t>
+          <t>95,55; 97,95</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>96,18; 98,13</t>
+          <t>94,21; 97,13</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>97,93; 98,97</t>
+          <t>97,37; 98,8</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>96,17; 97,79</t>
+          <t>95,05; 98,82</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>96,18; 98,15</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>95,71; 97,8</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>97,9; 98,95</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>96,42; 98,73</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>96,24; 97,75</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>95,53; 97,24</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no puede permitirse disponer de una lavadora (tasa de respuesta: 99,44%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>165.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>275.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>225.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>207.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>205.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>493801</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>447214</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>40780</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>40555</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>488047</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>460311</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>36162</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>35988</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>981848</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>907525</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>76942</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>76543</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>474471; 498505</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>422155; 458061</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>38578; 41685</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>37710; 42164</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>475864; 493435</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>439259; 468680</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>34530; 37076</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>34202; 36966</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>961595; 989735</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>880054; 923981</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>74380; 78203</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>73579; 78572</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>182.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>221.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>169.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>165.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>158.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>403.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>301.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>271.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>259.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>570072</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>573197</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>47776</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>45288</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>494312</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>489817</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>44517</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>44270</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1064384</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1063014</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>92293</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>89558</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>547662; 580081</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>550567; 579886</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>44580; 49020</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>42597; 46677</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>474287; 503842</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>468438; 499574</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>42860; 45532</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>42472; 45164</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1039203; 1079300</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1037791; 1075516</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>89096; 94021</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>86909; 91321</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>271.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>207.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>206.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>170.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>371.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>310.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>227.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>208.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>642.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>517.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>433.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>378.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>651366</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>658564</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>59139</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>56702</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>698410</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>705112</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>50135</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>53014</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>1349777</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>1363677</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>109274</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>109716</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>617794; 661466</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>644076; 662282</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>57672; 59721</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>53947; 58542</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>687035; 704063</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>692281; 710884</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>47973; 51479</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>51351; 54079</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1321696; 1360813</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>1343454; 1370884</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>106970; 110710</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>106758; 111861</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>309.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>248.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>184.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>196.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>367.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>306.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>220.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>228.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>676.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>554.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>404.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>424.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>634093</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>633591</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>57059</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>54477</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>637347</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>647437</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>50821</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>51736</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1271440</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1281028</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>107879</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>106213</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>563662; 653150</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>55440; 57637</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>52451; 55766</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>622527; 646347</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>632499; 653174</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>49461; 51275</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>50392; 52654</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1253591; 1280156</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1208205; 1302605</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>106382; 108679</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>103775; 107985</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>252.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>208.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>152.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>176.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>252.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>181.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>206.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>196.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>504.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>389.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>358.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>372.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>480255</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>487377</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>40517</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>43664</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>497023</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>505588</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>47190</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>45100</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>977278</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>992966</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>87707</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>88763</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>470209; 485275</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>472515; 493186</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>38147; 42015</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>42403; 44167</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>486825; 500675</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>490361; 510905</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>46027; 47916</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>43563; 46161</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>965166; 984264</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>975280; 1001858</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>85042; 89559</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>87070; 89928</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>188.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>144.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>243.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>146.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>163.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>431.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>278.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>256.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>307.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>529047</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>550387</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>43806</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>44965</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>678923</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>685029</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>62538</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>62276</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>1207971</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>1235416</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>106344</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>107241</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>515399; 532390</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>523491; 562301</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>41673; 44944</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>43676; 45554</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>657677; 687701</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>596234; 714255</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>60264; 63113</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>60459; 62933</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>1186974; 1219558</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>1148867; 1268434</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>103727; 107744</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>105385; 108205</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>1312.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>1020.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>879.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>873.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>1619.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>1244.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>1050.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>1072.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>2931.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>2264.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>1929.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>1945.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>3358633</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>3350329</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>289076</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>285651</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>3494064</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>3493295</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>291364</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>292383</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>6852697</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>6843624</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>580439</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>578035</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>3324563; 3377802</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>3281178; 3382476</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>285115; 292273</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>280218; 288918</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>3464052; 3514821</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>3392614; 3527309</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>288136; 294032</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>288916; 295222</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>6809299; 6882588</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>6737633; 6899283</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>575470; 584485</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>572526; 582785</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>